--- a/1335. Minimum Difficulty of a Job Schedule/Whiteboards/Solution.xlsx
+++ b/1335. Minimum Difficulty of a Job Schedule/Whiteboards/Solution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\0 template\Whiteboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\1335. Minimum Difficulty of a Job Schedule\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713DE802-9519-4608-B352-D1C1ED0E8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F85DBC-47E6-4DC3-B9DB-EC7C13087CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
@@ -34,6 +34,42 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="3">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>USEDCACHE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -45,12 +81,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,9 +131,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,17 +465,2376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF585D-CE06-44D4-80AA-070156E711E0}">
-  <dimension ref="A1"/>
+  <dimension ref="F7:AM149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y144" sqref="Y144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.7109375" style="1"/>
+    <col min="1" max="26" width="4.7109375" style="1"/>
+    <col min="27" max="28" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="4.7109375" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="8:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="8:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="8:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>5</v>
+      </c>
+      <c r="X9" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="8:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>3</v>
+      </c>
+      <c r="W10" s="1">
+        <v>2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="8:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <f>J10-I10</f>
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:M11" si="0">K10-J10</f>
+        <v>-3</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="8:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f>MAX(R5:R11)</f>
+        <v>5</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" ref="S12:AG12" si="1">MAX(S5:S11)</f>
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="8:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="1">
+        <f>SUM(R12:T12)</f>
+        <v>12</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>SUM(V12:X12)</f>
+        <v>10</v>
+      </c>
+      <c r="AC13" s="1">
+        <f>SUM(Z12:AB12)</f>
+        <v>10</v>
+      </c>
+      <c r="AG13" s="1">
+        <f>SUM(AD12:AF12)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="8:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>7</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>5</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2</v>
+      </c>
+      <c r="V15" s="1">
+        <v>4</v>
+      </c>
+      <c r="W15" s="1">
+        <v>6</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="8:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <f>IF(J$15&gt;I$16,J$15,I$16)</f>
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16:O16" si="2">IF(K$15&gt;J$16,K$15,J$16)</f>
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <f>S16+T$15</f>
+        <v>6</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" ref="U16:Y16" si="3">T16+U$15</f>
+        <v>8</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="R17" s="1">
+        <v>5</v>
+      </c>
+      <c r="T17" s="1">
+        <f>S17+T$15</f>
+        <v>5</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" ref="U17:Y18" si="4">T17+U$15</f>
+        <v>7</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" ref="V17:Y17" si="5">U17+V$15</f>
+        <v>11</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" ref="V18:Y19" si="6">U18+V$15</f>
+        <v>6</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" ref="W18:Y18" si="7">V18+W$15</f>
+        <v>12</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="R19" s="1">
+        <v>4</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" ref="W19:Y20" si="8">V19+W$15</f>
+        <v>10</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" ref="X19:Y19" si="9">W19+X$15</f>
+        <v>11</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="R20" s="1">
+        <v>6</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" ref="X20:Y21" si="10">W20+X$15</f>
+        <v>7</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" ref="Y20" si="11">X20+Y$15</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" ref="Y21:Y22" si="12">X21+Y$15</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>7</v>
+      </c>
+      <c r="R22" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>5</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2</v>
+      </c>
+      <c r="V25" s="1">
+        <v>4</v>
+      </c>
+      <c r="W25" s="1">
+        <v>6</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="R28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>6</v>
+      </c>
+      <c r="R29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>7</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="8:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="7:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>10</v>
+      </c>
+      <c r="U36" s="1">
+        <v>2</v>
+      </c>
+      <c r="V36" s="1">
+        <v>4</v>
+      </c>
+      <c r="W36" s="1">
+        <v>6</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="7:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <f>IF(T$36&gt;S37,T$36,S37)</f>
+        <v>10</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" ref="U37:Y39" si="13">IF(U$36&gt;T37,U$36,T37)</f>
+        <v>10</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="X37" s="1">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="7:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <v>5</v>
+      </c>
+      <c r="T38" s="1">
+        <v>10</v>
+      </c>
+      <c r="U38" s="1">
+        <f>IF(U$36&gt;T38,U$36,T38)</f>
+        <v>10</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" ref="W38:Y38" si="14">IF(W$36&gt;V38,W$36,V38)</f>
+        <v>10</v>
+      </c>
+      <c r="X38" s="1">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="7:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <v>2</v>
+      </c>
+      <c r="U39" s="1">
+        <v>2</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="W39" s="1">
+        <f t="shared" ref="W39:Y40" si="15">IF(W$36&gt;V39,W$36,V39)</f>
+        <v>6</v>
+      </c>
+      <c r="X39" s="1">
+        <f t="shared" ref="X39:Y39" si="16">IF(X$36&gt;W39,X$36,W39)</f>
+        <v>6</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="7:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <v>4</v>
+      </c>
+      <c r="V40" s="1">
+        <v>4</v>
+      </c>
+      <c r="W40" s="1">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="X40" s="1">
+        <f t="shared" ref="X40:Y41" si="17">IF(X$36&gt;W40,X$36,W40)</f>
+        <v>6</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" ref="Y40" si="18">IF(Y$36&gt;X40,Y$36,X40)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="7:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <v>6</v>
+      </c>
+      <c r="W41" s="1">
+        <v>6</v>
+      </c>
+      <c r="X41" s="1">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" ref="Y41:Y42" si="19">IF(Y$36&gt;X41,Y$36,X41)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="7:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="7:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="7:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4</v>
+      </c>
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+      <c r="L47" s="1">
+        <v>6</v>
+      </c>
+      <c r="M47" s="1">
+        <v>7</v>
+      </c>
+      <c r="N47" s="1">
+        <v>8</v>
+      </c>
+      <c r="O47" s="1">
+        <v>9</v>
+      </c>
+      <c r="P47" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4</v>
+      </c>
+      <c r="J49" s="1">
+        <v>7</v>
+      </c>
+      <c r="K49" s="1">
+        <v>3</v>
+      </c>
+      <c r="L49" s="1">
+        <v>8</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>9</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="1">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>9</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2</v>
+      </c>
+      <c r="K51" s="1">
+        <v>8</v>
+      </c>
+      <c r="L51" s="1">
+        <v>3</v>
+      </c>
+      <c r="M51" s="1">
+        <v>7</v>
+      </c>
+      <c r="N51" s="1">
+        <v>4</v>
+      </c>
+      <c r="O51" s="1">
+        <v>6</v>
+      </c>
+      <c r="P51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>5</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>4</v>
+      </c>
+      <c r="L60" s="1">
+        <v>8</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>7</v>
+      </c>
+      <c r="S60" s="1">
+        <v>10</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1</v>
+      </c>
+      <c r="U60" s="1">
+        <v>9</v>
+      </c>
+      <c r="V60" s="1">
+        <v>2</v>
+      </c>
+      <c r="W60" s="1">
+        <v>8</v>
+      </c>
+      <c r="X60" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <f>IF(H61&gt;I$60,H61,I$60)</f>
+        <v>5</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" ref="J61:N66" si="20">IF(I61&gt;J$60,I61,J$60)</f>
+        <v>5</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="R61" s="1" cm="1">
+        <f t="array" ref="R61:R70">TRANSPOSE(S60:AB60)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+      <c r="I62" s="1">
+        <v>5</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="R62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="R63" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="7:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>8</v>
+      </c>
+      <c r="K64" s="1">
+        <v>8</v>
+      </c>
+      <c r="L64" s="1">
+        <f>IF(K64&gt;L$60,K64,L$60)</f>
+        <v>8</v>
+      </c>
+      <c r="M64" s="1">
+        <f>IF(L64&gt;M$60,L64,M$60)</f>
+        <v>8</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="R64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>6</v>
+      </c>
+      <c r="L65" s="1">
+        <v>6</v>
+      </c>
+      <c r="M65" s="1">
+        <f>IF(L65&gt;M$60,L65,M$60)</f>
+        <v>6</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="R65" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <f>IF(M66&gt;N$60,M66,N$60)</f>
+        <v>7</v>
+      </c>
+      <c r="R66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>7</v>
+      </c>
+      <c r="N67" s="1">
+        <v>7</v>
+      </c>
+      <c r="R67" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>5</v>
+      </c>
+      <c r="J70" s="1">
+        <v>2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>4</v>
+      </c>
+      <c r="L70" s="1">
+        <v>8</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>7</v>
+      </c>
+      <c r="R70" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <f>I61-H61</f>
+        <v>4</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" ref="J71:N71" si="21">J61-I61</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" ref="I72:N72" si="22">J62-I62</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+    </row>
+    <row r="73" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="1">
+        <v>2</v>
+      </c>
+      <c r="K73" s="1">
+        <f t="shared" ref="I73:N73" si="23">K63-J63</f>
+        <v>2</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" ref="I74:N74" si="24">L64-K64</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+    </row>
+    <row r="75" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="1">
+        <v>8</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" ref="I75:N75" si="25">M65-L65</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" ref="I76:N76" si="26">N66-M66</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q78" s="1">
+        <v>1</v>
+      </c>
+      <c r="R78" s="1">
+        <v>5</v>
+      </c>
+      <c r="T78" s="1">
+        <v>4</v>
+      </c>
+      <c r="U78" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q79" s="1">
+        <v>1</v>
+      </c>
+      <c r="R79" s="1">
+        <v>5</v>
+      </c>
+      <c r="S79" s="1">
+        <v>2</v>
+      </c>
+      <c r="T79" s="1">
+        <v>4</v>
+      </c>
+      <c r="U79" s="1">
+        <v>8</v>
+      </c>
+      <c r="V79" s="1">
+        <v>1</v>
+      </c>
+      <c r="W79" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z79" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="7:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q80" s="2"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4"/>
+    </row>
+    <row r="84" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <v>1</v>
+      </c>
+      <c r="W84" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB84" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD84" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <v>1</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>5</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V86" s="1">
+        <v>2</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X86" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>5</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1">
+        <v>4</v>
+      </c>
+      <c r="J90" s="1">
+        <v>8</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1">
+        <v>7</v>
+      </c>
+      <c r="N90" s="1">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1">
+        <v>5</v>
+      </c>
+      <c r="P90" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>4</v>
+      </c>
+      <c r="R90" s="1">
+        <v>1</v>
+      </c>
+      <c r="S90" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>5</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1">
+        <v>4</v>
+      </c>
+      <c r="J92" s="1">
+        <v>8</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1">
+        <v>7</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1">
+        <v>4</v>
+      </c>
+      <c r="J93" s="1">
+        <v>8</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="R93" s="1">
+        <v>1</v>
+      </c>
+      <c r="S93" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2</v>
+      </c>
+      <c r="I94" s="1">
+        <v>4</v>
+      </c>
+      <c r="J94" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>5</v>
+      </c>
+      <c r="H95" s="1">
+        <v>2</v>
+      </c>
+      <c r="I95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="6:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>5</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>5</v>
+      </c>
+      <c r="P97" s="1">
+        <v>1</v>
+      </c>
+      <c r="R97" s="1">
+        <v>5</v>
+      </c>
+      <c r="T97" s="1">
+        <v>2</v>
+      </c>
+      <c r="V97" s="1">
+        <v>4</v>
+      </c>
+      <c r="X97" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="P98" s="1">
+        <v>1</v>
+      </c>
+      <c r="R98" s="1">
+        <v>5</v>
+      </c>
+      <c r="T98" s="1">
+        <v>5</v>
+      </c>
+      <c r="V98" s="1">
+        <v>5</v>
+      </c>
+      <c r="X98" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P100" s="1">
+        <v>1</v>
+      </c>
+      <c r="R100" s="1">
+        <v>5</v>
+      </c>
+      <c r="T100" s="1">
+        <v>5</v>
+      </c>
+      <c r="V100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P101" s="1">
+        <v>7</v>
+      </c>
+      <c r="R101" s="1">
+        <v>7</v>
+      </c>
+      <c r="T101" s="1">
+        <v>7</v>
+      </c>
+      <c r="V101" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P106" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>5</v>
+      </c>
+      <c r="R106" s="1">
+        <v>2</v>
+      </c>
+      <c r="S106" s="1">
+        <v>4</v>
+      </c>
+      <c r="T106" s="1">
+        <v>8</v>
+      </c>
+      <c r="U106" s="1">
+        <v>1</v>
+      </c>
+      <c r="V106" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P108" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>5</v>
+      </c>
+      <c r="R108" s="1">
+        <v>5</v>
+      </c>
+      <c r="S108" s="1">
+        <v>5</v>
+      </c>
+      <c r="T108" s="1">
+        <v>8</v>
+      </c>
+      <c r="U108" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P109" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>8</v>
+      </c>
+      <c r="R109" s="1">
+        <v>8</v>
+      </c>
+      <c r="S109" s="1">
+        <v>8</v>
+      </c>
+      <c r="T109" s="1">
+        <v>7</v>
+      </c>
+      <c r="U109" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="6:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P111" s="1">
+        <f>SUM(P108:P109)</f>
+        <v>9</v>
+      </c>
+      <c r="Q111" s="1">
+        <f t="shared" ref="Q111:V111" si="27">SUM(Q108:Q109)</f>
+        <v>13</v>
+      </c>
+      <c r="R111" s="1">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="S111" s="1">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="T111" s="1">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="U111" s="1">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="V111" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P113" s="1">
+        <v>1</v>
+      </c>
+      <c r="R113" s="1">
+        <v>5</v>
+      </c>
+      <c r="T113" s="1">
+        <v>8</v>
+      </c>
+      <c r="V113" s="1">
+        <v>3</v>
+      </c>
+      <c r="X113" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z113" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB113" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA117" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB117" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD117" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="1">
+        <v>10</v>
+      </c>
+      <c r="I119" s="1">
+        <v>9</v>
+      </c>
+      <c r="J119" s="1">
+        <v>8</v>
+      </c>
+      <c r="K119" s="1">
+        <v>7</v>
+      </c>
+      <c r="L119" s="1">
+        <v>5</v>
+      </c>
+      <c r="M119" s="1">
+        <v>3</v>
+      </c>
+      <c r="N119" s="1">
+        <v>1</v>
+      </c>
+      <c r="R119" s="6">
+        <v>0</v>
+      </c>
+      <c r="S119" s="6">
+        <v>1</v>
+      </c>
+      <c r="T119" s="6">
+        <v>2</v>
+      </c>
+      <c r="U119" s="6">
+        <v>3</v>
+      </c>
+      <c r="V119" s="6">
+        <v>4</v>
+      </c>
+      <c r="W119" s="6">
+        <v>5</v>
+      </c>
+      <c r="X119" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB119" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC119" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="1">
+        <v>2</v>
+      </c>
+      <c r="I120" s="1">
+        <v>6</v>
+      </c>
+      <c r="J120" s="1">
+        <v>4</v>
+      </c>
+      <c r="K120" s="1">
+        <v>5</v>
+      </c>
+      <c r="L120" s="1">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1">
+        <v>3</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
+      <c r="R120" s="1">
+        <v>1</v>
+      </c>
+      <c r="S120" s="1">
+        <v>5</v>
+      </c>
+      <c r="T120" s="1">
+        <v>10</v>
+      </c>
+      <c r="U120" s="1">
+        <v>3</v>
+      </c>
+      <c r="V120" s="1">
+        <v>8</v>
+      </c>
+      <c r="W120" s="1">
+        <v>7</v>
+      </c>
+      <c r="X120" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R122" s="1">
+        <v>1</v>
+      </c>
+      <c r="S122" s="1">
+        <v>5</v>
+      </c>
+      <c r="T122" s="1">
+        <v>10</v>
+      </c>
+      <c r="U122" s="1">
+        <v>10</v>
+      </c>
+      <c r="V122" s="1">
+        <v>10</v>
+      </c>
+      <c r="W122" s="1">
+        <v>10</v>
+      </c>
+      <c r="X122" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R123" s="1">
+        <v>10</v>
+      </c>
+      <c r="S123" s="1">
+        <v>10</v>
+      </c>
+      <c r="T123" s="1">
+        <v>9</v>
+      </c>
+      <c r="U123" s="1">
+        <v>9</v>
+      </c>
+      <c r="V123" s="1">
+        <v>9</v>
+      </c>
+      <c r="W123" s="1">
+        <v>9</v>
+      </c>
+      <c r="X123" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R125" s="1">
+        <f>SUM(R122:R123)</f>
+        <v>11</v>
+      </c>
+      <c r="S125" s="1">
+        <f>SUM(S122:S123)</f>
+        <v>15</v>
+      </c>
+      <c r="T125" s="1">
+        <f t="shared" ref="T125:X125" si="28">SUM(T122:T123)</f>
+        <v>19</v>
+      </c>
+      <c r="U125" s="1">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="V125" s="1">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="W125" s="1">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="X125" s="1">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="8:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R127" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB127" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC127" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD127" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE127" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF127" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH127" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI127" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ127" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK127" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA129" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB129" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC129" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD129" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE129" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF129" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG129" s="1">
+        <v>100</v>
+      </c>
+      <c r="AH129" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI129" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ129" s="1">
+        <v>100</v>
+      </c>
+      <c r="AK129" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA130" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB130" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC130" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD130" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE130" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF130" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG130" s="1">
+        <v>100</v>
+      </c>
+      <c r="AH130" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI130" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ130" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R132" s="1">
+        <v>5</v>
+      </c>
+      <c r="S132" s="1">
+        <v>10</v>
+      </c>
+      <c r="T132" s="1">
+        <v>3</v>
+      </c>
+      <c r="U132" s="1">
+        <v>8</v>
+      </c>
+      <c r="V132" s="1">
+        <v>7</v>
+      </c>
+      <c r="W132" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA134" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB134" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD134" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE134" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF134" s="1">
+        <v>99</v>
+      </c>
+      <c r="AG134" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH134" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI134" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ134" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK134" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL134" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R135" s="1">
+        <v>5</v>
+      </c>
+      <c r="S135" s="1">
+        <v>10</v>
+      </c>
+      <c r="V135" s="1">
+        <v>8</v>
+      </c>
+      <c r="W135" s="1">
+        <v>7</v>
+      </c>
+      <c r="X135" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA136" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD136" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE136" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF136" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG136" s="1">
+        <v>100</v>
+      </c>
+      <c r="AH136" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI136" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ136" s="1">
+        <v>100</v>
+      </c>
+      <c r="AK136" s="1">
+        <v>100</v>
+      </c>
+      <c r="AL136" s="1">
+        <v>100</v>
+      </c>
+      <c r="AM136" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA137" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD137" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE137" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF137" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG137" s="1">
+        <v>100</v>
+      </c>
+      <c r="AH137" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI137" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ137" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK137" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL137" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD139" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE139" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG139" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH139" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J140" s="1">
+        <v>1</v>
+      </c>
+      <c r="K140" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J141" s="1">
+        <v>1</v>
+      </c>
+      <c r="K141" s="1">
+        <v>1</v>
+      </c>
+      <c r="L141" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC141" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD141" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE141" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF141" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG141" s="1">
+        <v>100</v>
+      </c>
+      <c r="AH141" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI141" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ141" s="1">
+        <v>100</v>
+      </c>
+      <c r="AK141" s="1">
+        <v>100</v>
+      </c>
+      <c r="AL141" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J142" s="1">
+        <v>1</v>
+      </c>
+      <c r="K142" s="1">
+        <v>1</v>
+      </c>
+      <c r="L142" s="1">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC142" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD142" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE142" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF142" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG142" s="1">
+        <v>100</v>
+      </c>
+      <c r="AH142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J143" s="1">
+        <v>100</v>
+      </c>
+      <c r="K143" s="1">
+        <v>1</v>
+      </c>
+      <c r="L143" s="1">
+        <v>1</v>
+      </c>
+      <c r="M143" s="1">
+        <v>1</v>
+      </c>
+      <c r="N143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J144" s="1">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1">
+        <v>1</v>
+      </c>
+      <c r="L144" s="1">
+        <v>100</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="N144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="10:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J145" s="1">
+        <v>1</v>
+      </c>
+      <c r="K145" s="1">
+        <v>1</v>
+      </c>
+      <c r="L145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>100</v>
+      </c>
+      <c r="N145" s="1">
+        <v>1</v>
+      </c>
+      <c r="O145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="10:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X148" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="10:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W149" s="1">
+        <v>1</v>
+      </c>
+      <c r="X149" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y149" s="1">
+        <v>99</v>
+      </c>
+      <c r="Z149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA149" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB149" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/1335. Minimum Difficulty of a Job Schedule/Whiteboards/Solution.xlsx
+++ b/1335. Minimum Difficulty of a Job Schedule/Whiteboards/Solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\1335. Minimum Difficulty of a Job Schedule\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F85DBC-47E6-4DC3-B9DB-EC7C13087CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7B38F6-8ACD-4E47-AE3B-7D03679B094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
+    <workbookView xWindow="10395" yWindow="1995" windowWidth="18315" windowHeight="11385" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF585D-CE06-44D4-80AA-070156E711E0}">
-  <dimension ref="F7:AM149"/>
+  <dimension ref="E7:AM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y144" sqref="Y144"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L166" sqref="L166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA129" s="1">
         <v>1</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA130" s="1">
         <v>100</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R132" s="1">
         <v>5</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA134" s="1">
         <v>1</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R135" s="1">
         <v>5</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA136" s="1">
         <v>1</v>
       </c>
@@ -2577,7 +2577,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1">
+        <v>2</v>
+      </c>
+      <c r="H137" s="1">
+        <v>3</v>
+      </c>
+      <c r="I137" s="1">
+        <v>4</v>
+      </c>
+      <c r="J137" s="1">
+        <v>5</v>
+      </c>
+      <c r="K137" s="1">
+        <v>6</v>
+      </c>
       <c r="AA137" s="1">
         <v>1</v>
       </c>
@@ -2612,7 +2633,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E138" s="1">
+        <v>10</v>
+      </c>
+      <c r="F138" s="1">
+        <v>5</v>
+      </c>
+      <c r="G138" s="1">
+        <v>2</v>
+      </c>
+      <c r="H138" s="1">
+        <v>4</v>
+      </c>
+      <c r="I138" s="1">
+        <v>8</v>
+      </c>
+      <c r="J138" s="1">
+        <v>1</v>
+      </c>
+      <c r="K138" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y139" s="1">
         <v>1</v>
       </c>
@@ -2650,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J140" s="1">
         <v>1</v>
       </c>
@@ -2658,7 +2702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J141" s="1">
         <v>1</v>
       </c>
@@ -2699,7 +2743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J142" s="1">
         <v>1</v>
       </c>
@@ -2743,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J143" s="1">
         <v>100</v>
       </c>
@@ -2760,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="10:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J144" s="1">
         <v>1</v>
       </c>
@@ -2832,6 +2876,63 @@
       </c>
       <c r="AF149" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G161" s="1">
+        <v>2</v>
+      </c>
+      <c r="H161" s="1">
+        <v>3</v>
+      </c>
+      <c r="I161" s="1">
+        <v>4</v>
+      </c>
+      <c r="K161" s="1">
+        <v>5</v>
+      </c>
+      <c r="M161" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E162" s="1">
+        <v>10</v>
+      </c>
+      <c r="F162" s="1">
+        <v>5</v>
+      </c>
+      <c r="G162" s="1">
+        <v>2</v>
+      </c>
+      <c r="H162" s="1">
+        <v>4</v>
+      </c>
+      <c r="I162" s="1">
+        <v>8</v>
+      </c>
+      <c r="K162" s="1">
+        <v>1</v>
+      </c>
+      <c r="M162" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F164" s="1">
+        <v>10</v>
+      </c>
+      <c r="K164" s="1">
+        <v>1</v>
+      </c>
+      <c r="M164" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
